--- a/files/Relatorio - Mes 01 de 2023.xlsx
+++ b/files/Relatorio - Mes 01 de 2023.xlsx
@@ -575,10 +575,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1046,151 +1046,53 @@
       </c>
     </row>
     <row r="34" spans="1:4" customHeight="1" ht="20">
-      <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" customHeight="1" ht="20">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" customHeight="1" ht="20">
-      <c r="A36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="14">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:4" customHeight="1" ht="20">
-      <c r="A37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" customHeight="1" ht="20">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" customHeight="1" ht="20">
-      <c r="A39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" customHeight="1" ht="20">
-      <c r="A40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" customHeight="1" ht="20">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" customHeight="1" ht="20">
-      <c r="A44" s="8" t="s">
+      <c r="A37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="16" t="str">
+      <c r="B37" s="16" t="str">
         <f>SUMIF(B3, "=Saldo Anterior", D3)</f>
         <v>=SUMIF(B3, "=Saldo Anterior", D3)</v>
       </c>
     </row>
-    <row r="45" spans="1:4" customHeight="1" ht="20">
-      <c r="A45" s="9" t="s">
+    <row r="38" spans="1:4" customHeight="1" ht="20">
+      <c r="A38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="17" t="str">
-        <f>(SUMIF(C:C, "=Entrada", D:D) -B44)</f>
-        <v>=(SUMIF(C:C, "=Entrada", D:D) -B44)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" customHeight="1" ht="20">
-      <c r="A46" s="10" t="s">
+      <c r="B38" s="17" t="str">
+        <f>(SUMIF(C:C, "=Entrada", D:D) -B37)</f>
+        <v>=(SUMIF(C:C, "=Entrada", D:D) -B37)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customHeight="1" ht="20">
+      <c r="A39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="18" t="str">
+      <c r="B39" s="18" t="str">
         <f>SUMIF(C:C, "&lt;&gt;Entrada", D:D)</f>
         <v>=SUMIF(C:C, "&lt;&gt;Entrada", D:D)</v>
       </c>
     </row>
-    <row r="47" spans="1:4" customHeight="1" ht="20">
-      <c r="A47" s="11" t="s">
+    <row r="40" spans="1:4" customHeight="1" ht="20">
+      <c r="A40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="19" t="str">
-        <f>SUM(B44,B45,-B46)</f>
-        <v>=SUM(B44,B45,-B46)</v>
+      <c r="B40" s="19" t="str">
+        <f>SUM(B37,B38,-B39)</f>
+        <v>=SUM(B37,B38,-B39)</v>
       </c>
     </row>
   </sheetData>
